--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -166,24 +166,24 @@
     <t>safe</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -202,16 +202,16 @@
     <t>hand</t>
   </si>
   <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>credit</t>
   </si>
   <si>
     <t>hope</t>
@@ -2143,25 +2143,25 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0.6869565217391305</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L31">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -2169,13 +2169,13 @@
         <v>51</v>
       </c>
       <c r="K32">
-        <v>0.6842105263157895</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>0.93</v>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2195,25 +2195,25 @@
         <v>52</v>
       </c>
       <c r="K33">
-        <v>0.6829268292682927</v>
+        <v>0.68</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2221,25 +2221,25 @@
         <v>53</v>
       </c>
       <c r="K34">
-        <v>0.68</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2247,25 +2247,25 @@
         <v>54</v>
       </c>
       <c r="K35">
-        <v>0.6739130434782609</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="M35">
+        <v>73</v>
+      </c>
+      <c r="N35">
+        <v>0.93</v>
+      </c>
+      <c r="O35">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
         <v>33</v>
-      </c>
-      <c r="N35">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O35">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2273,25 +2273,25 @@
         <v>55</v>
       </c>
       <c r="K36">
-        <v>0.6732673267326733</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L36">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="M36">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2455,25 +2455,25 @@
         <v>62</v>
       </c>
       <c r="K43">
-        <v>0.5775075987841946</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L43">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2481,25 +2481,25 @@
         <v>63</v>
       </c>
       <c r="K44">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L44">
+        <v>20</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>15</v>
-      </c>
-      <c r="M44">
-        <v>15</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>11</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2507,25 +2507,25 @@
         <v>64</v>
       </c>
       <c r="K45">
-        <v>0.5714285714285714</v>
+        <v>0.5625</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M45">
         <v>20</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2533,25 +2533,25 @@
         <v>65</v>
       </c>
       <c r="K46">
-        <v>0.5625</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="N46">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="10:17">
